--- a/Balancing Sheet.xlsx
+++ b/Balancing Sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="62">
   <si>
     <t>Weapon</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>Grenade Launcher</t>
+  </si>
+  <si>
+    <t>Sniper Rifle</t>
   </si>
 </sst>
 </file>
@@ -312,6 +315,10 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -372,10 +379,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -509,8 +512,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table135" displayName="Table135" ref="B2:Q23" totalsRowShown="0">
-  <autoFilter ref="B2:Q23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table135" displayName="Table135" ref="B2:Q24" totalsRowShown="0">
+  <autoFilter ref="B2:Q24"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Weapon"/>
     <tableColumn id="2" name="A   " dataDxfId="6"/>
@@ -523,19 +526,19 @@
     <tableColumn id="8" name="Template"/>
     <tableColumn id="9" name="Column1"/>
     <tableColumn id="10" name=" "/>
-    <tableColumn id="11" name="     Hit %" dataDxfId="4" dataCellStyle="Percent">
-      <calculatedColumnFormula>IF(J3="X",1,($T$3/6))</calculatedColumnFormula>
+    <tableColumn id="11" name="     Hit %" dataDxfId="0" dataCellStyle="Percent">
+      <calculatedColumnFormula>IF(J3="X",4/6,($T$3/6))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="     Damage %" dataDxfId="3" dataCellStyle="Percent">
+    <tableColumn id="12" name="     Damage %" dataDxfId="4" dataCellStyle="Percent">
       <calculatedColumnFormula>D3/6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="     Armor Red." dataDxfId="2" dataCellStyle="Percent">
+    <tableColumn id="20" name="     Armor Red." dataDxfId="3" dataCellStyle="Percent">
       <calculatedColumnFormula>IF($U$5 &gt; 0,  IF(H3="X",0,  IF(I3="X", ($U$5-P3)/6,$U$5/6)      ),         0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="     Hits Æ" dataDxfId="1" dataCellStyle="Percent">
+    <tableColumn id="18" name="     Hits Æ" dataDxfId="2" dataCellStyle="Percent">
       <calculatedColumnFormula>C3*M3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="     Wounds Æ" dataDxfId="0" dataCellStyle="Percent">
+    <tableColumn id="19" name="     Wounds Æ" dataDxfId="1" dataCellStyle="Percent">
       <calculatedColumnFormula>P3*N3*IF(H3="X",1,(1-O3))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1440,10 +1443,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:U27"/>
+  <dimension ref="B2:U28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1533,31 +1536,31 @@
       </c>
       <c r="L3"/>
       <c r="M3" s="3">
-        <f>IF(J3="X",1,($T$3/6))</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" ref="M3:M24" si="0">IF(J3="X",4/6,($T$3/6))</f>
+        <v>0.5</v>
       </c>
       <c r="N3" s="3">
-        <f>D3/6</f>
+        <f t="shared" ref="N3:N8" si="1">D3/6</f>
         <v>0.5</v>
       </c>
       <c r="O3" s="3">
-        <f>IF($U$5 &gt; 0,  IF(H3="X",0,  IF(I3="X", ($U$5-P3)/6,$U$5/6)      ),         0)</f>
+        <f t="shared" ref="O3:O8" si="2">IF($U$5 &gt; 0,  IF(H3="X",0,  IF(I3="X", ($U$5-P3)/6,$U$5/6)      ),         0)</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="P3" s="6">
-        <f>C3*M3</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" ref="P3:P8" si="3">C3*M3</f>
+        <v>0.5</v>
       </c>
       <c r="Q3" s="6">
-        <f>P3*N3*IF(H3="X",1,(1-O3))</f>
-        <v>0.22222222222222224</v>
+        <f t="shared" ref="Q3:Q8" si="4">P3*N3*IF(H3="X",1,(1-O3))</f>
+        <v>0.16666666666666669</v>
       </c>
       <c r="R3" s="5"/>
       <c r="S3" t="s">
         <v>15</v>
       </c>
       <c r="T3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
@@ -1581,31 +1584,31 @@
       </c>
       <c r="L4"/>
       <c r="M4" s="3">
-        <f>IF(J4="X",1,($T$3/6))</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="N4" s="3">
-        <f>D4/6</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="O4" s="3">
-        <f>IF($U$5 &gt; 0,  IF(H4="X",0,  IF(I4="X", ($U$5-P4)/6,$U$5/6)      ),         0)</f>
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P4" s="6">
-        <f>C4*M4</f>
-        <v>1.3333333333333333</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Q4" s="6">
-        <f>P4*N4*IF(H4="X",1,(1-O4))</f>
-        <v>0.44444444444444448</v>
+        <f t="shared" si="4"/>
+        <v>0.33333333333333337</v>
       </c>
       <c r="R4" s="5"/>
       <c r="S4" t="s">
         <v>16</v>
       </c>
       <c r="T4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U4">
         <v>3</v>
@@ -1629,24 +1632,24 @@
       </c>
       <c r="L5"/>
       <c r="M5" s="3">
-        <f>IF(J5="X",1,($T$3/6))</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="N5" s="3">
-        <f>D5/6</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="O5" s="3">
-        <f>IF($U$5 &gt; 0,  IF(H5="X",0,  IF(I5="X", ($U$5-P5)/6,$U$5/6)      ),         0)</f>
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P5" s="6">
-        <f>C5*M5</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="Q5" s="6">
-        <f>P5*N5*IF(H5="X",1,(1-O5))</f>
-        <v>0.29629629629629634</v>
+        <f t="shared" si="4"/>
+        <v>0.22222222222222224</v>
       </c>
       <c r="S5" t="s">
         <v>31</v>
@@ -1676,24 +1679,24 @@
       </c>
       <c r="L6"/>
       <c r="M6" s="3">
-        <f>IF(J6="X",1,($T$3/6))</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="N6" s="3">
-        <f>D6/6</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="O6" s="3">
-        <f>IF($U$5 &gt; 0,  IF(H6="X",0,  IF(I6="X", ($U$5-P6)/6,$U$5/6)      ),         0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P6" s="6">
-        <f>C6*M6</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="Q6" s="6">
-        <f>P6*N6*IF(H6="X",1,(1-O6))</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="4"/>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
@@ -1717,24 +1720,24 @@
       </c>
       <c r="L7"/>
       <c r="M7" s="3">
-        <f>IF(J7="X",1,($T$3/6))</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N7" s="3">
-        <f>D7/6</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="O7" s="3">
-        <f>IF($U$5 &gt; 0,  IF(H7="X",0,  IF(I7="X", ($U$5-P7)/6,$U$5/6)      ),         0)</f>
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P7" s="6">
-        <f>C7*M7</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="Q7" s="6">
-        <f>P7*N7*IF(H7="X",1,(1-O7))</f>
-        <v>0.33333333333333337</v>
+        <f t="shared" si="4"/>
+        <v>0.22222222222222224</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
@@ -1758,24 +1761,24 @@
       </c>
       <c r="L8"/>
       <c r="M8" s="3">
-        <f>IF(J8="X",1,($T$3/6))</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="N8" s="3">
-        <f>D8/6</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="O8" s="3">
-        <f>IF($U$5 &gt; 0,  IF(H8="X",0,  IF(I8="X", ($U$5-P8)/6,$U$5/6)      ),         0)</f>
-        <v>0.22222222222222224</v>
+        <f t="shared" si="2"/>
+        <v>0.25</v>
       </c>
       <c r="P8" s="6">
-        <f>C8*M8</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="Q8" s="6">
-        <f>P8*N8*IF(H8="X",1,(1-O8))</f>
-        <v>0.25925925925925924</v>
+        <f t="shared" si="4"/>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
@@ -1803,24 +1806,24 @@
       </c>
       <c r="L10"/>
       <c r="M10" s="7">
-        <f>IF(J10="X",1,($T$3/6))</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="N10" s="3">
-        <f>D10/6</f>
+        <f t="shared" ref="N10:N18" si="5">D10/6</f>
         <v>0.5</v>
       </c>
       <c r="O10" s="7">
-        <f>IF($U$5 &gt; 0,  IF(H10="X",0,  IF(I10="X", ($U$5-P10)/6,$U$5/6)      ),         0)</f>
+        <f t="shared" ref="O10:O18" si="6">IF($U$5 &gt; 0,  IF(H10="X",0,  IF(I10="X", ($U$5-P10)/6,$U$5/6)      ),         0)</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="P10" s="8">
-        <f>C10*M10</f>
-        <v>1.3333333333333333</v>
+        <f t="shared" ref="P10:P18" si="7">C10*M10</f>
+        <v>1</v>
       </c>
       <c r="Q10" s="8">
-        <f t="shared" ref="Q10:Q15" si="0">P10*N10*IF(H10="X",1,(1-O10))</f>
-        <v>0.44444444444444448</v>
+        <f t="shared" ref="Q10:Q15" si="8">P10*N10*IF(H10="X",1,(1-O10))</f>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
@@ -1844,24 +1847,24 @@
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="7">
-        <f>IF(J11="X",1,($T$3/6))</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="N11" s="3">
-        <f>D11/6</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="O11" s="7">
-        <f>IF($U$5 &gt; 0,  IF(H11="X",0,  IF(I11="X", ($U$5-P11)/6,$U$5/6)      ),         0)</f>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P11" s="8">
-        <f>C11*M11</f>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>1.5</v>
       </c>
       <c r="Q11" s="8">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666674</v>
+        <f t="shared" si="8"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
@@ -1882,24 +1885,24 @@
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="7">
-        <f>IF(J12="X",1,($T$3/6))</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="N12" s="3">
-        <f>D12/6</f>
+        <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="O12" s="7">
-        <f>IF($U$5 &gt; 0,  IF(H12="X",0,  IF(I12="X", ($U$5-P12)/6,$U$5/6)      ),         0)</f>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P12" s="8">
-        <f>C12*M12</f>
-        <v>1.3333333333333333</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="Q12" s="8">
-        <f t="shared" si="0"/>
-        <v>0.59259259259259267</v>
+        <f t="shared" si="8"/>
+        <v>0.44444444444444448</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
@@ -1923,24 +1926,24 @@
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="7">
-        <f>IF(J13="X",1,($T$3/6))</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="N13" s="3">
-        <f>D13/6</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="O13" s="7">
-        <f>IF($U$5 &gt; 0,  IF(H13="X",0,  IF(I13="X", ($U$5-P13)/6,$U$5/6)      ),         0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P13" s="8">
-        <f>C13*M13</f>
-        <v>1.3333333333333333</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="Q13" s="8">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="8"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
@@ -1963,24 +1966,24 @@
         <v>32</v>
       </c>
       <c r="M14" s="7">
-        <f>IF(J14="X",1,($T$3/6))</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N14" s="3">
-        <f>D14/6</f>
+        <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="O14" s="7">
-        <f>IF($U$5 &gt; 0,  IF(H14="X",0,  IF(I14="X", ($U$5-P14)/6,$U$5/6)      ),         0)</f>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P14" s="8">
-        <f>C14*M14</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="Q14" s="8">
-        <f t="shared" si="0"/>
-        <v>0.44444444444444448</v>
+        <f t="shared" si="8"/>
+        <v>0.29629629629629634</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
@@ -2003,24 +2006,24 @@
         <v>32</v>
       </c>
       <c r="M15" s="7">
-        <f>IF(J15="X",1,($T$3/6))</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="N15" s="3">
-        <f>D15/6</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="O15" s="7">
-        <f>IF($U$5 &gt; 0,  IF(H15="X",0,  IF(I15="X", ($U$5-P15)/6,$U$5/6)      ),         0)</f>
-        <v>0.11111111111111112</v>
+        <f t="shared" si="6"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P15" s="8">
-        <f>C15*M15</f>
-        <v>1.3333333333333333</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="Q15" s="8">
-        <f t="shared" si="0"/>
-        <v>0.59259259259259256</v>
+        <f t="shared" si="8"/>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
@@ -2043,193 +2046,193 @@
         <v>59</v>
       </c>
       <c r="M16" s="7">
-        <f>IF(J16="X",1,($T$3/6))</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="N16" s="3">
-        <f>D16/6</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="O16" s="7">
-        <f>IF($U$5 &gt; 0,  IF(H16="X",0,  IF(I16="X", ($U$5-P16)/6,$U$5/6)      ),         0)</f>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P16" s="8">
-        <f>C16*M16</f>
-        <v>1.3333333333333333</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="Q16" s="8">
         <f>P16*N16*IF(H16="X",1,(1-O16))</f>
-        <v>0.44444444444444448</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s">
         <v>32</v>
       </c>
       <c r="M17" s="7">
-        <f>IF(J17="X",1,($T$3/6))</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="N17" s="3">
         <f>D17/6</f>
-        <v>0.5</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O17" s="7">
         <f>IF($U$5 &gt; 0,  IF(H17="X",0,  IF(I17="X", ($U$5-P17)/6,$U$5/6)      ),         0)</f>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="P17" s="8">
         <f>C17*M17</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q17" s="8">
         <f>P17*N17*IF(H17="X",1,(1-O17))</f>
-        <v>0.33333333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="M18" s="7"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" s="7">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="O18" s="7">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P18" s="8">
+        <f t="shared" si="7"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q18" s="8">
+        <f>P18*N18*IF(H18="X",1,(1-O18))</f>
+        <v>0.22222222222222224</v>
+      </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="1">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" t="s">
-        <v>53</v>
-      </c>
-      <c r="M19" s="7">
-        <f t="shared" ref="M19:M22" si="1">IF(J19="X",1,($T$3/6))</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="N19" s="3">
-        <f t="shared" ref="N19:N22" si="2">D19/6</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O19" s="7">
-        <f t="shared" ref="O19:O22" si="3">IF($U$5 &gt; 0,  IF(H19="X",0,  IF(I19="X", ($U$5-P19)/6,$U$5/6)      ),         0)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="P19" s="8">
-        <f t="shared" ref="P19:P22" si="4">C19*M19</f>
-        <v>2</v>
-      </c>
-      <c r="Q19" s="8">
-        <f t="shared" ref="Q19:Q22" si="5">P19*N19*IF(H19="X",1,(1-O19))</f>
-        <v>0.88888888888888895</v>
-      </c>
+      <c r="M19" s="7"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="G20" t="s">
+        <v>53</v>
       </c>
       <c r="M20" s="7">
-        <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="N20" s="3">
-        <f t="shared" si="2"/>
-        <v>0.83333333333333337</v>
+        <f t="shared" ref="N20:N23" si="9">D20/6</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O20" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="O20:O23" si="10">IF($U$5 &gt; 0,  IF(H20="X",0,  IF(I20="X", ($U$5-P20)/6,$U$5/6)      ),         0)</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="P20" s="8">
-        <f t="shared" si="4"/>
-        <v>1.3333333333333333</v>
+        <f t="shared" ref="P20:P23" si="11">C20*M20</f>
+        <v>1.5</v>
       </c>
       <c r="Q20" s="8">
-        <f t="shared" si="5"/>
-        <v>0.74074074074074081</v>
+        <f t="shared" ref="Q20:Q23" si="12">P20*N20*IF(H20="X",1,(1-O20))</f>
+        <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21" t="s">
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
-      </c>
-      <c r="J21" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M21" s="7">
-        <f>IF(J21="X",1,($T$3/6))</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="N21" s="3">
-        <f>D21/6</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="9"/>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O21" s="7">
-        <f>IF($U$5 &gt; 0,  IF(H21="X",0,  IF(I21="X", ($U$5-P21)/6,$U$5/6)      ),         0)</f>
+        <f t="shared" si="10"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="P21" s="8">
-        <f>C21*M21</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Q21" s="8">
-        <f>P21*N21*IF(H21="X",1,(1-O21))</f>
-        <v>0.44444444444444448</v>
+        <f t="shared" si="12"/>
+        <v>0.55555555555555569</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -2238,7 +2241,7 @@
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
         <v>36</v>
@@ -2247,40 +2250,72 @@
         <v>32</v>
       </c>
       <c r="M22" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N22" s="3">
-        <f t="shared" si="2"/>
+        <f>D22/6</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="O22" s="7">
-        <f t="shared" si="3"/>
+        <f>IF($U$5 &gt; 0,  IF(H22="X",0,  IF(I22="X", ($U$5-P22)/6,$U$5/6)      ),         0)</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="P22" s="8">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>C22*M22</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="Q22" s="8">
-        <f t="shared" si="5"/>
-        <v>0.44444444444444448</v>
+        <f>P22*N22*IF(H22="X",1,(1-O22))</f>
+        <v>0.29629629629629634</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="M23" s="7"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="L26"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" s="7">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N23" s="3">
+        <f t="shared" si="9"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O23" s="7">
+        <f t="shared" si="10"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P23" s="8">
+        <f t="shared" si="11"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q23" s="8">
+        <f t="shared" si="12"/>
+        <v>0.29629629629629634</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M24" s="7"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="L27"/>
@@ -2289,6 +2324,14 @@
       <c r="O27" s="3"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="L28"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Balancing Sheet.xlsx
+++ b/Balancing Sheet.xlsx
@@ -1,14 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Melee Weapons P" sheetId="1" r:id="rId1"/>
     <sheet name="Ranged Weapons P" sheetId="2" r:id="rId2"/>
+    <sheet name="Cults Melee Weapons" sheetId="3" r:id="rId3"/>
+    <sheet name="Cults Ranged Weapons" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="68">
   <si>
     <t>Weapon</t>
   </si>
@@ -230,6 +232,24 @@
   </si>
   <si>
     <t>Sniper Rifle</t>
+  </si>
+  <si>
+    <t>Sorcerer’s Staff</t>
+  </si>
+  <si>
+    <t>Scraprifle</t>
+  </si>
+  <si>
+    <t>Stuttergun</t>
+  </si>
+  <si>
+    <t>Autocannon</t>
+  </si>
+  <si>
+    <t>Plasmagun</t>
+  </si>
+  <si>
+    <t>Scrapgun</t>
   </si>
 </sst>
 </file>
@@ -269,20 +289,47 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor theme="6" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -291,7 +338,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -307,16 +354,87 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -379,6 +497,86 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -481,6 +679,76 @@
   <autoFilter ref="B2:Q11"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Weapon"/>
+    <tableColumn id="2" name="A   " dataDxfId="29"/>
+    <tableColumn id="3" name="D    " dataDxfId="28"/>
+    <tableColumn id="21" name="H" dataDxfId="27"/>
+    <tableColumn id="4" name="Damage  "/>
+    <tableColumn id="5" name="Type"/>
+    <tableColumn id="17" name="Notes"/>
+    <tableColumn id="6" name="     Penetration"/>
+    <tableColumn id="7" name="     Rending"/>
+    <tableColumn id="8" name="     Stabby"/>
+    <tableColumn id="10" name=" "/>
+    <tableColumn id="11" name="     Hit %" dataDxfId="26" dataCellStyle="Percent">
+      <calculatedColumnFormula>(7 - (4-($U$4-$V$4)))/6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" name="     Damage %" dataDxfId="25" dataCellStyle="Percent">
+      <calculatedColumnFormula>D3/6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" name="     Armor Red." dataDxfId="24" dataCellStyle="Percent">
+      <calculatedColumnFormula>IF($V$5 &gt; 0,  IF(I3="X",0,  IF(J3="X", ($V$5-P3)/6,$V$5/6)      ),         0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="     Hits Æ" dataDxfId="23" dataCellStyle="Percent">
+      <calculatedColumnFormula>C3*M3/E3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" name="     Wounds Æ" dataDxfId="22" dataCellStyle="Percent">
+      <calculatedColumnFormula>P3*N3*IF(I3="X",1,(1-O3))</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table135" displayName="Table135" ref="B2:Q24" totalsRowShown="0">
+  <autoFilter ref="B2:Q24"/>
+  <tableColumns count="16">
+    <tableColumn id="1" name="Weapon"/>
+    <tableColumn id="2" name="A   " dataDxfId="21"/>
+    <tableColumn id="3" name="D    " dataDxfId="20"/>
+    <tableColumn id="4" name="Damage  "/>
+    <tableColumn id="5" name="Type"/>
+    <tableColumn id="17" name="Notes"/>
+    <tableColumn id="6" name="     Penetration"/>
+    <tableColumn id="7" name="     Rending"/>
+    <tableColumn id="8" name="Template"/>
+    <tableColumn id="9" name="Column1"/>
+    <tableColumn id="10" name=" "/>
+    <tableColumn id="11" name="     Hit %" dataDxfId="19" dataCellStyle="Percent">
+      <calculatedColumnFormula>IF(J3="X",4/6,($T$3/6))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" name="     Damage %" dataDxfId="18" dataCellStyle="Percent">
+      <calculatedColumnFormula>D3/6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" name="     Armor Red." dataDxfId="17" dataCellStyle="Percent">
+      <calculatedColumnFormula>IF($U$5 &gt; 0,  IF(H3="X",0,  IF(I3="X", ($U$5-P3)/6,$U$5/6)      ),         0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="     Hits Æ" dataDxfId="16" dataCellStyle="Percent">
+      <calculatedColumnFormula>C3*M3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" name="     Wounds Æ" dataDxfId="15" dataCellStyle="Percent">
+      <calculatedColumnFormula>P3*N3*IF(H3="X",1,(1-O3))</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="B2:Q11" totalsRowShown="0">
+  <autoFilter ref="B2:Q11"/>
+  <tableColumns count="16">
+    <tableColumn id="1" name="Weapon"/>
     <tableColumn id="2" name="A   " dataDxfId="14"/>
     <tableColumn id="3" name="D    " dataDxfId="13"/>
     <tableColumn id="21" name="H" dataDxfId="12"/>
@@ -511,9 +779,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table135" displayName="Table135" ref="B2:Q24" totalsRowShown="0">
-  <autoFilter ref="B2:Q24"/>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table1356" displayName="Table1356" ref="B2:Q25" totalsRowShown="0">
+  <autoFilter ref="B2:Q25"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Weapon"/>
     <tableColumn id="2" name="A   " dataDxfId="6"/>
@@ -526,14 +794,14 @@
     <tableColumn id="8" name="Template"/>
     <tableColumn id="9" name="Column1"/>
     <tableColumn id="10" name=" "/>
-    <tableColumn id="11" name="     Hit %" dataDxfId="0" dataCellStyle="Percent">
+    <tableColumn id="11" name="     Hit %" dataDxfId="4" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(J3="X",4/6,($T$3/6))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="     Damage %" dataDxfId="4" dataCellStyle="Percent">
+    <tableColumn id="12" name="     Damage %" dataDxfId="3" dataCellStyle="Percent">
       <calculatedColumnFormula>D3/6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="     Armor Red." dataDxfId="3" dataCellStyle="Percent">
-      <calculatedColumnFormula>IF($U$5 &gt; 0,  IF(H3="X",0,  IF(I3="X", ($U$5-P3)/6,$U$5/6)      ),         0)</calculatedColumnFormula>
+    <tableColumn id="20" name="     Armor Red." dataDxfId="0" dataCellStyle="Percent">
+      <calculatedColumnFormula>IF($U$5 &gt; 0,  IF(H3="X",    IF($U$5&lt;4,0,0.5),  IF(I3="X", ($U$5-P3)/6,$U$5/6)      ),         0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="18" name="     Hits Æ" dataDxfId="2" dataCellStyle="Percent">
       <calculatedColumnFormula>C3*M3</calculatedColumnFormula>
@@ -846,7 +1114,7 @@
   <dimension ref="B2:V24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="A2" sqref="A2:W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,7 +1713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
@@ -1536,7 +1804,7 @@
       </c>
       <c r="L3"/>
       <c r="M3" s="3">
-        <f t="shared" ref="M3:M24" si="0">IF(J3="X",4/6,($T$3/6))</f>
+        <f t="shared" ref="M3:M23" si="0">IF(J3="X",4/6,($T$3/6))</f>
         <v>0.5</v>
       </c>
       <c r="N3" s="3">
@@ -2332,6 +2600,1144 @@
       <c r="O28" s="3"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:V12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="9" max="12" width="6.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="3">
+        <f t="shared" ref="M3:M9" si="0">(7 - (4-($U$4-$V$4)))/6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" ref="N3:N9" si="1">D3/6</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" ref="O3" si="2">IF($V$5 &gt; 0,  IF(I3="X",0,  IF(J3="X", ($V$5-P3)/6,$V$5/6)      ),         0)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P3" s="6">
+        <f t="shared" ref="P3:P9" si="3">C3*M3/E3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q3" s="6">
+        <f>P3*N3*(1-O3)</f>
+        <v>0.14814814814814817</v>
+      </c>
+      <c r="R3" s="5"/>
+      <c r="T3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O4" s="3">
+        <f>IF($V$5 &gt; 0,  IF(I4="X",0,  IF(J4="X", ($V$5-P4)/6,$V$5/6)      ),         0)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q4" s="6">
+        <f>P4*N4*IF(I4="X",1,(1-O4))</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="R4" s="5"/>
+      <c r="T4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O5" s="3">
+        <f>IF($V$5 &gt; 0,  IF(I5="X",0,  IF(J5="X", ($V$5-P5)/6,$V$5/6)      ),         0)</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="P5" s="6">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q5" s="6">
+        <f>P5*N5*IF(I5="X",1,(1-O5))</f>
+        <v>0.16049382716049382</v>
+      </c>
+      <c r="R5" s="5"/>
+      <c r="T5" t="s">
+        <v>31</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="3">
+        <f>IF($V$5 &gt; 0,  IF(I6="X",0,  IF(J6="X", ($V$5-P6)/6,$V$5/6)      ),         0)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P6" s="6">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q6" s="6">
+        <f>P6*N6*IF(I6="X",1,(1-O6))</f>
+        <v>0.22222222222222224</v>
+      </c>
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="O7" s="3">
+        <f>IF($V$5 &gt; 0,  IF(I7="X",0,  IF(J7="X", ($V$5-P7)/6,$V$5/6)      ),         0)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q7" s="6">
+        <f>P7*N7*IF(I7="X",1,(1-O7))</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="R7" s="5"/>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="O8" s="3">
+        <f>IF($V$5 &gt; 0,  IF(I8="X",0,  IF(J8="X", ($V$5-P8)/6,$V$5/6)      ),         0)</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="P8" s="6">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q8" s="6">
+        <f>P8*N8*IF(I8="X",1,(1-O8))</f>
+        <v>0.20061728395061729</v>
+      </c>
+      <c r="R8" s="5"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="O9" s="3">
+        <f>IF($V$5 &gt; 0,  IF(I9="X",0,  IF(J9="X", ($V$5-P9)/6,$V$5/6)      ),         0)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P9" s="6">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q9" s="6">
+        <f>P9*N9*IF(I9="X",1,(1-O9))</f>
+        <v>0.11111111111111112</v>
+      </c>
+      <c r="R9" s="5"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="5"/>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="5"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:V29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="4" width="5.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="10" width="4.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="16" width="6" style="4" customWidth="1"/>
+    <col min="17" max="20" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="3">
+        <f>IF(J3="X",4/6,($T$3/6))</f>
+        <v>0.5</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" ref="N3" si="0">D3/6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O3" s="3">
+        <f>IF($U$5 &gt; 0,  IF(H3="X",    IF($U$5&lt;4,0,0.5),  IF(I3="X", ($U$5-P3)/6,$U$5/6)      ),         0)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P3" s="6">
+        <f t="shared" ref="P3" si="1">C3*M3</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q3" s="6">
+        <f t="shared" ref="Q3" si="2">P3*N3*IF(H3="X",1,(1-O3))</f>
+        <v>0.11111111111111112</v>
+      </c>
+      <c r="R3" s="5"/>
+      <c r="S3" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4"/>
+      <c r="M4" s="3">
+        <f>IF(J4="X",4/6,($T$3/6))</f>
+        <v>0.5</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" ref="N4:N6" si="3">D4/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="O4" s="3">
+        <f>IF($U$5 &gt; 0,  IF(H4="X",    IF($U$5&lt;4,0,0.5),  IF(I4="X", ($U$5-P4)/6,$U$5/6)      ),         0)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P4" s="6">
+        <f t="shared" ref="P4:P6" si="4">C4*M4</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q4" s="6">
+        <f t="shared" ref="Q4:Q6" si="5">P4*N4*IF(H4="X",1,(1-O4))</f>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="R4" s="5"/>
+      <c r="S4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5" s="3">
+        <f>IF(J5="X",4/6,($T$3/6))</f>
+        <v>0.5</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="O5" s="3">
+        <f>IF($U$5 &gt; 0,  IF(H5="X",    IF($U$5&lt;4,0,0.5),  IF(I5="X", ($U$5-P5)/6,$U$5/6)      ),         0)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P5" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q5" s="6">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="S5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5" s="1" t="str">
+        <f>IF(U5=1,"6+",IF(U5=2,"5+",IF(U5=3,"4+",IF(U5=4,"3+",IF(U5=5,"2+",IF(U5=6,"1+"))))))</f>
+        <v>5+</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6" s="3">
+        <f>IF(J6="X",4/6,($T$3/6))</f>
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O6" s="3">
+        <f>IF($U$5 &gt; 0,  IF(H6="X",    IF($U$5&lt;4,0,0.5),  IF(I6="X", ($U$5-P6)/6,$U$5/6)      ),         0)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P6" s="6">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="6">
+        <f t="shared" si="5"/>
+        <v>0.22222222222222224</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="L7"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8" s="3">
+        <f>IF(J8="X",4/6,($T$3/6))</f>
+        <v>0.5</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" ref="N8:N17" si="6">D8/6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O8" s="3">
+        <f>IF($U$5 &gt; 0,  IF(H8="X",    IF($U$5&lt;4,0,0.5),  IF(I8="X", ($U$5-P8)/6,$U$5/6)      ),         0)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P8" s="6">
+        <f t="shared" ref="P8:P17" si="7">C8*M8</f>
+        <v>1</v>
+      </c>
+      <c r="Q8" s="6">
+        <f t="shared" ref="Q8:Q17" si="8">P8*N8*IF(H8="X",1,(1-O8))</f>
+        <v>0.22222222222222224</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9" s="3">
+        <f>IF(J9="X",4/6,($T$3/6))</f>
+        <v>0.5</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" si="6"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O9" s="3">
+        <f>IF($U$5 &gt; 0,  IF(H9="X",    IF($U$5&lt;4,0,0.5),  IF(I9="X", ($U$5-P9)/6,$U$5/6)      ),         0)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q9" s="6">
+        <f t="shared" si="8"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="3">
+        <f>IF(J10="X",4/6,($T$3/6))</f>
+        <v>0.5</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="O10" s="3">
+        <f>IF($U$5 &gt; 0,  IF(H10="X",    IF($U$5&lt;4,0,0.5),  IF(I10="X", ($U$5-P10)/6,$U$5/6)      ),         0)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P10" s="6">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q10" s="6">
+        <f t="shared" si="8"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11"/>
+      <c r="M11" s="3">
+        <f>IF(J11="X",4/6,($T$3/6))</f>
+        <v>0.5</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="O11" s="3">
+        <f>IF($U$5 &gt; 0,  IF(H11="X",    IF($U$5&lt;4,0,0.5),  IF(I11="X", ($U$5-P11)/6,$U$5/6)      ),         0)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P11" s="6">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q11" s="6">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3">
+        <f>IF(J12="X",4/6,($T$3/6))</f>
+        <v>0.5</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="6"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O12" s="3">
+        <f>IF($U$5 &gt; 0,  IF(H12="X",    IF($U$5&lt;4,0,0.5),  IF(I12="X", ($U$5-P12)/6,$U$5/6)      ),         0)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P12" s="6">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="6">
+        <f t="shared" si="8"/>
+        <v>0.44444444444444448</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="7">
+        <f>IF(J13="X",4/6,($T$3/6))</f>
+        <v>0.5</v>
+      </c>
+      <c r="N13" s="3">
+        <f>D13/6</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O13" s="3">
+        <f>IF($U$5 &gt; 0,  IF(H13="X",    IF($U$5&lt;4,0,0.5),  IF(I13="X", ($U$5-P13)/6,$U$5/6)      ),         0)</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="8">
+        <f>C13*M13</f>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="8">
+        <f>P13*N13*IF(H13="X",1,(1-O13))</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3">
+        <f>IF(J14="X",4/6,($T$3/6))</f>
+        <v>0.5</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="6"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O14" s="3">
+        <f>IF($U$5 &gt; 0,  IF(H14="X",    IF($U$5&lt;4,0,0.5),  IF(I14="X", ($U$5-P14)/6,$U$5/6)      ),         0)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P14" s="6">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q14" s="6">
+        <f t="shared" si="8"/>
+        <v>0.22222222222222224</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3">
+        <f>IF(J15="X",4/6,($T$3/6))</f>
+        <v>0.5</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="O15" s="3">
+        <f>IF($U$5 &gt; 0,  IF(H15="X",    IF($U$5&lt;4,0,0.5),  IF(I15="X", ($U$5-P15)/6,$U$5/6)      ),         0)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P15" s="6">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q15" s="6">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" s="3">
+        <f>IF(J17="X",4/6,($T$3/6))</f>
+        <v>0.5</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="6"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O17" s="3">
+        <f>IF($U$5 &gt; 0,  IF(H17="X",    IF($U$5&lt;4,0,0.5),  IF(I17="X", ($U$5-P17)/6,$U$5/6)      ),         0)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P17" s="6">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q17" s="6">
+        <f t="shared" si="8"/>
+        <v>0.66666666666666674</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M18" s="7"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M19" s="7"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M20" s="7"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M21" s="7"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M22" s="7"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M23" s="7"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M24" s="7"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M25" s="7"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="L28"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="L29"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
